--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt3-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt3-Ryk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt3</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H2">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.49304366666667</v>
+        <v>10.83367066666667</v>
       </c>
       <c r="N2">
-        <v>34.479131</v>
+        <v>32.501012</v>
       </c>
       <c r="O2">
-        <v>0.2201107113282896</v>
+        <v>0.1945663943642109</v>
       </c>
       <c r="P2">
-        <v>0.2201107113282897</v>
+        <v>0.1945663943642109</v>
       </c>
       <c r="Q2">
-        <v>1.366220241816778</v>
+        <v>0.2314794299111112</v>
       </c>
       <c r="R2">
-        <v>12.295982176351</v>
+        <v>2.083314869200001</v>
       </c>
       <c r="S2">
-        <v>0.2201107113282896</v>
+        <v>0.02016704808826674</v>
       </c>
       <c r="T2">
-        <v>0.2201107113282897</v>
+        <v>0.02016704808826674</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H3">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>83.631664</v>
       </c>
       <c r="O3">
-        <v>0.5338946927812221</v>
+        <v>0.5006586046969607</v>
       </c>
       <c r="P3">
-        <v>0.5338946927812223</v>
+        <v>0.5006586046969607</v>
       </c>
       <c r="Q3">
-        <v>3.313867516371555</v>
+        <v>0.5956432958222223</v>
       </c>
       <c r="R3">
-        <v>29.824807647344</v>
+        <v>5.3607896624</v>
       </c>
       <c r="S3">
-        <v>0.5338946927812221</v>
+        <v>0.05189388532239447</v>
       </c>
       <c r="T3">
-        <v>0.5338946927812223</v>
+        <v>0.05189388532239446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H4">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.133321</v>
+        <v>0.4511806666666667</v>
       </c>
       <c r="N4">
-        <v>0.399963</v>
+        <v>1.353542</v>
       </c>
       <c r="O4">
-        <v>0.002553316684083386</v>
+        <v>0.008102941119511068</v>
       </c>
       <c r="P4">
-        <v>0.002553316684083387</v>
+        <v>0.00810294111951107</v>
       </c>
       <c r="Q4">
-        <v>0.01584835611366666</v>
+        <v>0.009640226911111112</v>
       </c>
       <c r="R4">
-        <v>0.142635205023</v>
+        <v>0.0867620422</v>
       </c>
       <c r="S4">
-        <v>0.002553316684083386</v>
+        <v>0.0008398798967702525</v>
       </c>
       <c r="T4">
-        <v>0.002553316684083387</v>
+        <v>0.0008398798967702526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H5">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.608304</v>
+        <v>16.146255</v>
       </c>
       <c r="N5">
-        <v>37.824912</v>
+        <v>48.438765</v>
       </c>
       <c r="O5">
-        <v>0.2414697831639074</v>
+        <v>0.2899773045068669</v>
       </c>
       <c r="P5">
-        <v>0.2414697831639075</v>
+        <v>0.2899773045068669</v>
       </c>
       <c r="Q5">
-        <v>1.498795326928</v>
+        <v>0.3449916485</v>
       </c>
       <c r="R5">
-        <v>13.489157942352</v>
+        <v>3.1049248365</v>
       </c>
       <c r="S5">
-        <v>0.2414697831639074</v>
+        <v>0.03005650725864327</v>
       </c>
       <c r="T5">
-        <v>0.2414697831639075</v>
+        <v>0.03005650725864327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.02136666666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.0641</v>
+      </c>
+      <c r="I6">
+        <v>0.1036512402574302</v>
+      </c>
+      <c r="J6">
+        <v>0.1036512402574302</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.3727713333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.118314</v>
+      </c>
+      <c r="O6">
+        <v>0.006694755312450519</v>
+      </c>
+      <c r="P6">
+        <v>0.006694755312450519</v>
+      </c>
+      <c r="Q6">
+        <v>0.007964880822222221</v>
+      </c>
+      <c r="R6">
+        <v>0.07168392739999999</v>
+      </c>
+      <c r="S6">
+        <v>0.0006939196913555162</v>
+      </c>
+      <c r="T6">
+        <v>0.0006939196913555161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.125821</v>
+      </c>
+      <c r="I7">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J7">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.83367066666667</v>
+      </c>
+      <c r="N7">
+        <v>32.501012</v>
+      </c>
+      <c r="O7">
+        <v>0.1945663943642109</v>
+      </c>
+      <c r="P7">
+        <v>0.1945663943642109</v>
+      </c>
+      <c r="Q7">
+        <v>0.4543677589835556</v>
+      </c>
+      <c r="R7">
+        <v>4.089309830852</v>
+      </c>
+      <c r="S7">
+        <v>0.0395856186819627</v>
+      </c>
+      <c r="T7">
+        <v>0.03958561868196271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.125821</v>
+      </c>
+      <c r="I8">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J8">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>27.87722133333333</v>
+      </c>
+      <c r="N8">
+        <v>83.631664</v>
+      </c>
+      <c r="O8">
+        <v>0.5006586046969607</v>
+      </c>
+      <c r="P8">
+        <v>0.5006586046969607</v>
+      </c>
+      <c r="Q8">
+        <v>1.169179955127111</v>
+      </c>
+      <c r="R8">
+        <v>10.522619596144</v>
+      </c>
+      <c r="S8">
+        <v>0.1018617869758033</v>
+      </c>
+      <c r="T8">
+        <v>0.1018617869758033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.125821</v>
+      </c>
+      <c r="I9">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J9">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4511806666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.353542</v>
+      </c>
+      <c r="O9">
+        <v>0.008102941119511068</v>
+      </c>
+      <c r="P9">
+        <v>0.00810294111951107</v>
+      </c>
+      <c r="Q9">
+        <v>0.01892266755355555</v>
+      </c>
+      <c r="R9">
+        <v>0.170304007982</v>
+      </c>
+      <c r="S9">
+        <v>0.001648588588011387</v>
+      </c>
+      <c r="T9">
+        <v>0.001648588588011388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.125821</v>
+      </c>
+      <c r="I10">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J10">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>16.146255</v>
+      </c>
+      <c r="N10">
+        <v>48.438765</v>
+      </c>
+      <c r="O10">
+        <v>0.2899773045068669</v>
+      </c>
+      <c r="P10">
+        <v>0.2899773045068669</v>
+      </c>
+      <c r="Q10">
+        <v>0.677179316785</v>
+      </c>
+      <c r="R10">
+        <v>6.094613851065</v>
+      </c>
+      <c r="S10">
+        <v>0.05899750077675123</v>
+      </c>
+      <c r="T10">
+        <v>0.05899750077675123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.125821</v>
+      </c>
+      <c r="I11">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J11">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3727713333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.118314</v>
+      </c>
+      <c r="O11">
+        <v>0.006694755312450519</v>
+      </c>
+      <c r="P11">
+        <v>0.006694755312450519</v>
+      </c>
+      <c r="Q11">
+        <v>0.01563415397711111</v>
+      </c>
+      <c r="R11">
+        <v>0.140707385794</v>
+      </c>
+      <c r="S11">
+        <v>0.001362085327395357</v>
+      </c>
+      <c r="T11">
+        <v>0.001362085327395357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.142833</v>
+      </c>
+      <c r="H12">
+        <v>0.428499</v>
+      </c>
+      <c r="I12">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J12">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.83367066666667</v>
+      </c>
+      <c r="N12">
+        <v>32.501012</v>
+      </c>
+      <c r="O12">
+        <v>0.1945663943642109</v>
+      </c>
+      <c r="P12">
+        <v>0.1945663943642109</v>
+      </c>
+      <c r="Q12">
+        <v>1.547405682332</v>
+      </c>
+      <c r="R12">
+        <v>13.926651140988</v>
+      </c>
+      <c r="S12">
+        <v>0.1348137275939814</v>
+      </c>
+      <c r="T12">
+        <v>0.1348137275939814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.1188736666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.356621</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="G13">
+        <v>0.142833</v>
+      </c>
+      <c r="H13">
+        <v>0.428499</v>
+      </c>
+      <c r="I13">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J13">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>27.87722133333333</v>
+      </c>
+      <c r="N13">
+        <v>83.631664</v>
+      </c>
+      <c r="O13">
+        <v>0.5006586046969607</v>
+      </c>
+      <c r="P13">
+        <v>0.5006586046969607</v>
+      </c>
+      <c r="Q13">
+        <v>3.981787154704</v>
+      </c>
+      <c r="R13">
+        <v>35.836084392336</v>
+      </c>
+      <c r="S13">
+        <v>0.3469029323987629</v>
+      </c>
+      <c r="T13">
+        <v>0.3469029323987629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="L6">
+      <c r="F14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M6">
-        <v>0.1029413333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.308824</v>
-      </c>
-      <c r="O6">
-        <v>0.00197149604249735</v>
-      </c>
-      <c r="P6">
-        <v>0.001971496042497351</v>
-      </c>
-      <c r="Q6">
-        <v>0.01223701374488889</v>
-      </c>
-      <c r="R6">
-        <v>0.110133123704</v>
-      </c>
-      <c r="S6">
-        <v>0.00197149604249735</v>
-      </c>
-      <c r="T6">
-        <v>0.001971496042497351</v>
+      <c r="G14">
+        <v>0.142833</v>
+      </c>
+      <c r="H14">
+        <v>0.428499</v>
+      </c>
+      <c r="I14">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J14">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.4511806666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.353542</v>
+      </c>
+      <c r="O14">
+        <v>0.008102941119511068</v>
+      </c>
+      <c r="P14">
+        <v>0.00810294111951107</v>
+      </c>
+      <c r="Q14">
+        <v>0.06444348816199999</v>
+      </c>
+      <c r="R14">
+        <v>0.579991393458</v>
+      </c>
+      <c r="S14">
+        <v>0.005614472634729428</v>
+      </c>
+      <c r="T14">
+        <v>0.005614472634729429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.142833</v>
+      </c>
+      <c r="H15">
+        <v>0.428499</v>
+      </c>
+      <c r="I15">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J15">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.146255</v>
+      </c>
+      <c r="N15">
+        <v>48.438765</v>
+      </c>
+      <c r="O15">
+        <v>0.2899773045068669</v>
+      </c>
+      <c r="P15">
+        <v>0.2899773045068669</v>
+      </c>
+      <c r="Q15">
+        <v>2.306218040415</v>
+      </c>
+      <c r="R15">
+        <v>20.755962363735</v>
+      </c>
+      <c r="S15">
+        <v>0.2009232964714724</v>
+      </c>
+      <c r="T15">
+        <v>0.2009232964714724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.142833</v>
+      </c>
+      <c r="H16">
+        <v>0.428499</v>
+      </c>
+      <c r="I16">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J16">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3727713333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.118314</v>
+      </c>
+      <c r="O16">
+        <v>0.006694755312450519</v>
+      </c>
+      <c r="P16">
+        <v>0.006694755312450519</v>
+      </c>
+      <c r="Q16">
+        <v>0.05324404785399999</v>
+      </c>
+      <c r="R16">
+        <v>0.4791964306859999</v>
+      </c>
+      <c r="S16">
+        <v>0.004638750293699645</v>
+      </c>
+      <c r="T16">
+        <v>0.004638750293699645</v>
       </c>
     </row>
   </sheetData>
